--- a/biology/Médecine/Hôpital_de_St._Helena/Hôpital_de_St._Helena.xlsx
+++ b/biology/Médecine/Hôpital_de_St._Helena/Hôpital_de_St._Helena.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_St._Helena</t>
+          <t>Hôpital_de_St._Helena</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L’hôpital de St. Helena (en anglais, St. Helena Hospital) est un centre hospitalier adventiste à Angwin dans la région verdoyante de Napa Valley en Californie[1]. C'est l'institution médicale adventiste la plus ancienne (1878) après l'Institut de la réforme sanitaire (1866) de Battle Creek, mais la plus ancienne actuellement car le Sanitarium de Battle Creek n'existe plus. Elle adhère pleinement à la philosophie holistique de la santé totale : traiter l'être entier (physique, mental, social et spirituel). 
+L’hôpital de St. Helena (en anglais, St. Helena Hospital) est un centre hospitalier adventiste à Angwin dans la région verdoyante de Napa Valley en Californie. C'est l'institution médicale adventiste la plus ancienne (1878) après l'Institut de la réforme sanitaire (1866) de Battle Creek, mais la plus ancienne actuellement car le Sanitarium de Battle Creek n'existe plus. Elle adhère pleinement à la philosophie holistique de la santé totale : traiter l'être entier (physique, mental, social et spirituel). 
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_St._Helena</t>
+          <t>Hôpital_de_St._Helena</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’hôpital de St. Helena dans le comté de Napa a été fondé en 1878 sous l’appellation « la retraite sanitaire rurale » (13 lits au départ) par Dr Merritt Kellogg, un frère du Dr John Harvey Kellogg. Durant les années 1890, l'institution se transforma en un édifice de cinq étages, à l'allure d'un hôtel, avec vérandas, un ascenseur, un court de tennis, une piscine, le téléphone et des machines pour produire les granose flakes (un précurseur des cornflakes) et du jus de raisin des vignes d'alentour. Il fut alors renommé le Sanitarium de St. Helena. Il fournit divers services : chirurgie, hydrothérapie, kinésithérapie, maternité, activités physiques, et d'autres programmes de médecine préventive. En 1891, une école d'infirmières fut créée[2].    
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’hôpital de St. Helena dans le comté de Napa a été fondé en 1878 sous l’appellation « la retraite sanitaire rurale » (13 lits au départ) par Dr Merritt Kellogg, un frère du Dr John Harvey Kellogg. Durant les années 1890, l'institution se transforma en un édifice de cinq étages, à l'allure d'un hôtel, avec vérandas, un ascenseur, un court de tennis, une piscine, le téléphone et des machines pour produire les granose flakes (un précurseur des cornflakes) et du jus de raisin des vignes d'alentour. Il fut alors renommé le Sanitarium de St. Helena. Il fournit divers services : chirurgie, hydrothérapie, kinésithérapie, maternité, activités physiques, et d'autres programmes de médecine préventive. En 1891, une école d'infirmières fut créée.    
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_St._Helena</t>
+          <t>Hôpital_de_St._Helena</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Services</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Centre cardio-vasculaire
 Services médicaux et chirurgicaux
